--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67D6D9-49BB-4ABE-9FDA-4B22C056E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCBFA5E-D757-476A-B777-878E64ADC023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -184,12 +184,6 @@
     <t>regex(., '^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>k_ward</t>
-  </si>
-  <si>
-    <t>k_site</t>
-  </si>
-  <si>
     <t>Record code</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>k_code_id</t>
   </si>
   <si>
-    <t>k_site_id</t>
-  </si>
-  <si>
     <t>Select school ID</t>
   </si>
   <si>
@@ -271,25 +262,127 @@
     <t>Kato Katz result</t>
   </si>
   <si>
-    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1.2</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v1_2</t>
-  </si>
-  <si>
     <t>join(' ', ${k_code_id})</t>
   </si>
   <si>
     <t>if (${C2} = 1,'',substring-after(${C1},${k_code_id}))</t>
   </si>
   <si>
-    <t>k_1_2</t>
-  </si>
-  <si>
     <t>not(selected(${C3}, ${k_code_id}))</t>
   </si>
   <si>
     <t>This child code has already been selected.</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_3_kato_katz</t>
+  </si>
+  <si>
+    <t>lr_k_202401</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form</t>
+  </si>
+  <si>
+    <t>k_subdistrict</t>
+  </si>
+  <si>
+    <t>k_school_name</t>
+  </si>
+  <si>
+    <t>k_school_id</t>
+  </si>
+  <si>
+    <t>k_other_name_1</t>
+  </si>
+  <si>
+    <t>k_other_quantity_1a</t>
+  </si>
+  <si>
+    <t>k_other_quantity_1b</t>
+  </si>
+  <si>
+    <t>Other (name 1)</t>
+  </si>
+  <si>
+    <t>Other Quantity 1 – Slide A</t>
+  </si>
+  <si>
+    <t>Other Quantity 1 – Slide B</t>
+  </si>
+  <si>
+    <t>k_sch_man_intensity</t>
+  </si>
+  <si>
+    <t>k_sch_man_heavy_intensity</t>
+  </si>
+  <si>
+    <t>k_sch_man_moderate_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_sch_man_intensity} &gt;= 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>if(${k_sch_man_intensity} &gt;= 100 and ${k_sch_man_intensity} &lt; 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>(${k_sch_man_sa} + ${k_sch_man_sb}) *12</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni (eggs) - Intensity</t>
+  </si>
+  <si>
+    <t>k_ascaris_lumb_intensity</t>
+  </si>
+  <si>
+    <t>(${k_ascaris_lumb_sa} + ${k_ascaris_lumb_sb}) *12</t>
+  </si>
+  <si>
+    <t>k_ascaris_lumb_heavy_intensity</t>
+  </si>
+  <si>
+    <t>k_ascaris_lumb_moderate_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_ascaris_lumb_intensity} &gt;= 50000, 1, 0)</t>
+  </si>
+  <si>
+    <t>if(${k_ascaris_lumb_intensity} &gt;= 5000 and ${k_ascaris_lumb_intensity} &lt; 50000, 1, 0)</t>
+  </si>
+  <si>
+    <t>k_hookworm_intensity</t>
+  </si>
+  <si>
+    <t>(${k_hookworm_sa} + ${k_hookworm_sb}) *12</t>
+  </si>
+  <si>
+    <t>k_hookworm_heavy_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_hookworm_intensity} &gt;= 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>k_hookworm_moderate_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_hookworm_intensity} &gt;= 100 and ${k_hookworm_intensity} &lt; 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>k_trichuris_intensity</t>
+  </si>
+  <si>
+    <t>(${k_trichuris_sa} + ${k_trichuris_sb}) *12</t>
+  </si>
+  <si>
+    <t>k_trichuris_heavy_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_trichuris_intensity} &gt;= 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>k_trichuris_moderate_intensity</t>
+  </si>
+  <si>
+    <t>if(${k_trichuris_intensity} &gt;= 100 and ${k_trichuris_intensity} &lt; 400, 1, 0)</t>
   </si>
 </sst>
 </file>
@@ -882,26 +975,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="38" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="22" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="16" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="16" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="16" customWidth="1"/>
     <col min="12" max="12" width="36.625" style="16" customWidth="1"/>
@@ -946,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="31.5">
@@ -957,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="23"/>
@@ -965,7 +1058,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -983,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="28"/>
@@ -1002,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="19"/>
@@ -1024,10 +1117,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="19"/>
@@ -1046,10 +1139,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="19"/>
@@ -1065,10 +1158,10 @@
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1077,7 +1170,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1085,13 +1178,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
@@ -1105,10 +1198,10 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1117,7 +1210,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1125,10 +1218,10 @@
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="63">
       <c r="A10" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1137,7 +1230,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1148,18 +1241,18 @@
         <v>13</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="F11" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="17"/>
@@ -1177,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="32"/>
@@ -1199,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="32"/>
@@ -1218,100 +1311,91 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="32"/>
       <c r="F14" s="23"/>
       <c r="G14" s="33"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="I14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="23"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
+      <c r="M14" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1">
       <c r="A15" s="23" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>56</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="32"/>
       <c r="F15" s="23"/>
       <c r="G15" s="33"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="I15" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="23"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:13" s="15" customFormat="1">
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>57</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="32"/>
       <c r="F16" s="23"/>
       <c r="G16" s="33"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="I16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="23"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1">
-      <c r="A17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>58</v>
-      </c>
+    <row r="17" spans="1:13" s="15" customFormat="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="32"/>
       <c r="F17" s="23"/>
       <c r="G17" s="33"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="J17" s="23"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1">
+    <row r="18" spans="1:13" s="15" customFormat="1">
       <c r="A18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="36"/>
+      <c r="B18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="33"/>
@@ -1323,17 +1407,17 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" s="15" customFormat="1">
+    <row r="19" spans="1:13" s="15" customFormat="1">
       <c r="A19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="36"/>
+      <c r="B19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="33"/>
@@ -1345,163 +1429,520 @@
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1">
+    <row r="20" spans="1:13" s="15" customFormat="1">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="36"/>
+      <c r="B20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="33"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="I20" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="23"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1">
+      <c r="M20" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="15" customFormat="1">
       <c r="A21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="32"/>
       <c r="F21" s="23"/>
       <c r="G21" s="33"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="I21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+    <row r="22" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="32"/>
       <c r="F22" s="23"/>
       <c r="G22" s="33"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="I22" s="32" t="s">
+        <v>102</v>
+      </c>
       <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1">
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" s="15" customFormat="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="33"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" s="15" customFormat="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" s="15" customFormat="1">
+      <c r="A24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="J24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" s="15" customFormat="1">
       <c r="A25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" s="15" customFormat="1">
+      <c r="A26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="15" customFormat="1">
+      <c r="A27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" s="15" customFormat="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" s="15" customFormat="1">
+      <c r="A30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" s="15" customFormat="1">
+      <c r="A31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:13" s="15" customFormat="1">
+      <c r="A32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="15" customFormat="1">
+      <c r="A33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" s="15" customFormat="1" ht="31.5">
+      <c r="A34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" s="15" customFormat="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" s="15" customFormat="1">
+      <c r="A36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" s="15" customFormat="1">
+      <c r="A37" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" s="15" customFormat="1">
+      <c r="A38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" s="15" customFormat="1">
+      <c r="A39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" s="15" customFormat="1">
+      <c r="A40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" s="15" customFormat="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B42" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="23" t="s">
+      <c r="C42" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B44" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="34" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2722,7 +3163,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>78</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCBFA5E-D757-476A-B777-878E64ADC023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA6606-B106-42A7-95FE-70693E953E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -151,12 +151,6 @@
     <t>yesNo</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -274,15 +268,6 @@
     <t>This child code has already been selected.</t>
   </si>
   <si>
-    <t>lr_sch_sth_impact_202401_3_kato_katz</t>
-  </si>
-  <si>
-    <t>lr_k_202401</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form</t>
-  </si>
-  <si>
     <t>k_subdistrict</t>
   </si>
   <si>
@@ -383,6 +368,33 @@
   </si>
   <si>
     <t>if(${k_trichuris_intensity} &gt;= 100 and ${k_trichuris_intensity} &lt; 400, 1, 0)</t>
+  </si>
+  <si>
+    <t>lr_k_202401_v12</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form V1.2</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_3_kato_katz_v1_2</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>k_add_result</t>
+  </si>
+  <si>
+    <t>Do you want to add a Kato Katz results</t>
+  </si>
+  <si>
+    <t>${k_add_result} = 'Yes'</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -975,13 +987,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C6"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -993,7 +1005,7 @@
     <col min="5" max="5" width="12.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="38" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="16" customWidth="1"/>
     <col min="9" max="9" width="23.25" style="16" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="16" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="16" customWidth="1"/>
@@ -1009,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>2</v>
@@ -1021,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>4</v>
@@ -1039,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="31.5">
@@ -1050,15 +1062,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1076,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="28"/>
@@ -1095,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="19"/>
@@ -1117,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="19"/>
@@ -1139,10 +1151,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="19"/>
@@ -1156,12 +1168,12 @@
       <c r="K6" s="19"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="27" customFormat="1" ht="31.5">
+    <row r="7" spans="1:13" s="27" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1170,7 +1182,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1178,13 +1190,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
@@ -1198,10 +1210,10 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1210,18 +1222,18 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="63">
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A10" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1230,7 +1242,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1238,21 +1250,21 @@
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="31.5">
       <c r="A11" s="17" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="F11" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="17"/>
@@ -1262,43 +1274,51 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="15" customFormat="1">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="23" t="s">
+    <row r="12" spans="1:13" s="31" customFormat="1" ht="47.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:13" s="15" customFormat="1">
       <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="32"/>
       <c r="F13" s="23"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I13" s="32"/>
       <c r="J13" s="23" t="s">
         <v>10</v>
@@ -1311,99 +1331,107 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="32"/>
       <c r="F14" s="23"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="23"/>
+      <c r="H14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="15" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1">
       <c r="A15" s="23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="32"/>
       <c r="F15" s="23"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I15" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="M15" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="15" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="32"/>
       <c r="F16" s="23"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I16" s="32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="32"/>
       <c r="F17" s="23"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="H17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="J17" s="23"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:13" s="15" customFormat="1">
-      <c r="A18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="33"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="J18" s="23"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
     </row>
@@ -1412,16 +1440,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I19" s="32"/>
       <c r="J19" s="23" t="s">
         <v>10</v>
@@ -1434,99 +1464,107 @@
         <v>14</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="23"/>
+      <c r="H20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="15" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="21" spans="1:13" s="15" customFormat="1">
       <c r="A21" s="23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="D21" s="25"/>
       <c r="E21" s="32"/>
       <c r="F21" s="23"/>
       <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
+      <c r="H21" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I21" s="32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
+      <c r="M21" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A22" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="32"/>
       <c r="F22" s="23"/>
       <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
+      <c r="H22" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I22" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:13" s="15" customFormat="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="H23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="J23" s="23"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:13" s="15" customFormat="1">
-      <c r="A24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>55</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
     </row>
@@ -1535,16 +1573,18 @@
         <v>14</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="32"/>
       <c r="F25" s="23"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
+      <c r="H25" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I25" s="32"/>
       <c r="J25" s="23" t="s">
         <v>10</v>
@@ -1557,99 +1597,107 @@
         <v>14</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="32"/>
       <c r="F26" s="23"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="23"/>
+      <c r="H26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="15" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="27" spans="1:13" s="15" customFormat="1">
       <c r="A27" s="23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="D27" s="25"/>
       <c r="E27" s="32"/>
       <c r="F27" s="23"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="32"/>
+      <c r="H27" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I27" s="32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
+      <c r="M27" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A28" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="32"/>
       <c r="F28" s="23"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="32"/>
+      <c r="H28" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I28" s="32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="1:13" s="15" customFormat="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+    <row r="29" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="32"/>
       <c r="F29" s="23"/>
       <c r="G29" s="33"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="H29" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="J29" s="23"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:13" s="15" customFormat="1">
-      <c r="A30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="36"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="32"/>
       <c r="F30" s="23"/>
       <c r="G30" s="33"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="J30" s="23"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
@@ -1658,16 +1706,18 @@
         <v>14</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="32"/>
       <c r="F31" s="23"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I31" s="32"/>
       <c r="J31" s="23" t="s">
         <v>10</v>
@@ -1679,118 +1729,128 @@
       <c r="A32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="B32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="36"/>
       <c r="E32" s="32"/>
       <c r="F32" s="23"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="23"/>
+      <c r="H32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
-      <c r="M32" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="15" customFormat="1">
+    </row>
+    <row r="33" spans="1:13" s="15" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="D33" s="25"/>
       <c r="E33" s="32"/>
       <c r="F33" s="23"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I33" s="32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" ht="31.5">
+      <c r="M33" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="15" customFormat="1">
       <c r="A34" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="32"/>
       <c r="F34" s="23"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I34" s="32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" s="15" customFormat="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
+    <row r="35" spans="1:13" s="15" customFormat="1" ht="31.5">
+      <c r="A35" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="32"/>
       <c r="F35" s="23"/>
       <c r="G35" s="33"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="H35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>109</v>
+      </c>
       <c r="J35" s="23"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" s="15" customFormat="1">
-      <c r="A36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>24</v>
-      </c>
+    <row r="36" spans="1:13" s="15" customFormat="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="36"/>
       <c r="E36" s="32"/>
       <c r="F36" s="23"/>
       <c r="G36" s="33"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
-    <row r="37" spans="1:12" s="15" customFormat="1">
+    <row r="37" spans="1:13" s="15" customFormat="1">
       <c r="A37" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="32"/>
       <c r="F37" s="23"/>
       <c r="G37" s="33"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I37" s="32"/>
       <c r="J37" s="23" t="s">
         <v>10</v>
@@ -1798,140 +1858,154 @@
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
-    <row r="38" spans="1:12" s="15" customFormat="1">
+    <row r="38" spans="1:13" s="15" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="32"/>
       <c r="F38" s="23"/>
       <c r="G38" s="33"/>
-      <c r="H38" s="32"/>
+      <c r="H38" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I38" s="32"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
-    <row r="39" spans="1:12" s="15" customFormat="1">
+    <row r="39" spans="1:13" s="15" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="32"/>
       <c r="F39" s="23"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="32"/>
+      <c r="H39" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I39" s="32"/>
       <c r="J39" s="23"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
-    <row r="40" spans="1:12" s="15" customFormat="1">
+    <row r="40" spans="1:13" s="15" customFormat="1">
       <c r="A40" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="32"/>
       <c r="F40" s="23"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="32"/>
+      <c r="H40" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I40" s="32"/>
       <c r="J40" s="23"/>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" s="15" customFormat="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
+    <row r="41" spans="1:13" s="15" customFormat="1">
+      <c r="A41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>84</v>
+      </c>
       <c r="D41" s="36"/>
       <c r="E41" s="32"/>
       <c r="F41" s="23"/>
       <c r="G41" s="33"/>
-      <c r="H41" s="32"/>
+      <c r="H41" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I41" s="32"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="23" t="s">
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:13" s="15" customFormat="1">
+      <c r="A42" s="23"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="23" t="s">
+      <c r="C43" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="36"/>
@@ -1943,6 +2017,24 @@
       <c r="J45" s="23"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1956,7 +2048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1975,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>33</v>
@@ -1993,10 +2085,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2004,10 +2096,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3138,7 +3230,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3149,27 +3241,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA6606-B106-42A7-95FE-70693E953E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9637B-95DE-4018-8342-DD6F330FF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -990,10 +990,10 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1248,7 +1248,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:13" s="31" customFormat="1" ht="31.5">
+    <row r="11" spans="1:13" s="31" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>113</v>
       </c>
@@ -1260,12 +1260,8 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="17"/>
       <c r="J11" s="19" t="s">
@@ -1274,7 +1270,7 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="31" customFormat="1" ht="47.25">
+    <row r="12" spans="1:13" s="31" customFormat="1" ht="31.5">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9637B-95DE-4018-8342-DD6F330FF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4638C-9139-430F-A31B-79721CDFB230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -370,15 +370,6 @@
     <t>if(${k_trichuris_intensity} &gt;= 100 and ${k_trichuris_intensity} &lt; 400, 1, 0)</t>
   </si>
   <si>
-    <t>lr_k_202401_v12</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form V1.2</t>
-  </si>
-  <si>
-    <t>lr_sch_sth_impact_202401_3_kato_katz_v1_2</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
@@ -395,6 +386,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form V2</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_3_kato_katz_v2</t>
+  </si>
+  <si>
+    <t>lr_k_202401_v2</t>
   </si>
 </sst>
 </file>
@@ -990,10 +990,10 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1193,7 +1193,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>71</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
@@ -1289,7 +1289,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="19" t="s">
@@ -1313,7 +1313,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="33"/>
       <c r="H13" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="23" t="s">
@@ -1337,7 +1337,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="33"/>
       <c r="H14" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="23" t="s">
@@ -1361,7 +1361,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="33"/>
       <c r="H15" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>90</v>
@@ -1386,7 +1386,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="33"/>
       <c r="H16" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>88</v>
@@ -1408,7 +1408,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="33"/>
       <c r="H17" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>89</v>
@@ -1446,7 +1446,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="33"/>
       <c r="H19" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="23" t="s">
@@ -1470,7 +1470,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="33"/>
       <c r="H20" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="23" t="s">
@@ -1494,7 +1494,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="33"/>
       <c r="H21" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>93</v>
@@ -1519,7 +1519,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="33"/>
       <c r="H22" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>96</v>
@@ -1541,7 +1541,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="33"/>
       <c r="H23" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>97</v>
@@ -1579,7 +1579,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="33"/>
       <c r="H25" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="23" t="s">
@@ -1603,7 +1603,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="33"/>
       <c r="H26" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="23" t="s">
@@ -1627,7 +1627,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="33"/>
       <c r="H27" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>99</v>
@@ -1652,7 +1652,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="33"/>
       <c r="H28" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I28" s="32" t="s">
         <v>101</v>
@@ -1674,7 +1674,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="33"/>
       <c r="H29" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>103</v>
@@ -1712,7 +1712,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="33"/>
       <c r="H31" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="23" t="s">
@@ -1736,7 +1736,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="33"/>
       <c r="H32" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="23" t="s">
@@ -1760,7 +1760,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="33"/>
       <c r="H33" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>105</v>
@@ -1785,7 +1785,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="33"/>
       <c r="H34" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>107</v>
@@ -1807,7 +1807,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="33"/>
       <c r="H35" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>109</v>
@@ -1845,7 +1845,7 @@
       <c r="F37" s="23"/>
       <c r="G37" s="33"/>
       <c r="H37" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="23" t="s">
@@ -1869,7 +1869,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="33"/>
       <c r="H38" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="23" t="s">
@@ -1893,7 +1893,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="33"/>
       <c r="H39" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="23"/>
@@ -1915,7 +1915,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="33"/>
       <c r="H40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="23"/>
@@ -1937,7 +1937,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="33"/>
       <c r="H41" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="23"/>
@@ -1972,9 +1972,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="34"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="H43" s="19"/>
       <c r="I43" s="37"/>
       <c r="J43" s="23"/>
       <c r="K43" s="37"/>
@@ -2081,10 +2079,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2092,10 +2090,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3251,10 +3249,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4638C-9139-430F-A31B-79721CDFB230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18BE20-91BB-4B94-9880-933EAB5A1E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>Record code</t>
   </si>
   <si>
-    <t>Select the council</t>
-  </si>
-  <si>
-    <t>Select ward</t>
-  </si>
-  <si>
     <t>Schistosoma mansoni (eggs) - Slide A</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>This child code has already been selected.</t>
   </si>
   <si>
-    <t>k_subdistrict</t>
-  </si>
-  <si>
     <t>k_school_name</t>
   </si>
   <si>
@@ -388,13 +379,22 @@
     <t>No</t>
   </si>
   <si>
-    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form V2</t>
-  </si>
-  <si>
-    <t>lr_sch_sth_impact_202401_3_kato_katz_v2</t>
-  </si>
-  <si>
-    <t>lr_k_202401_v2</t>
+    <t>Select the District</t>
+  </si>
+  <si>
+    <t>k_location</t>
+  </si>
+  <si>
+    <t>Select the location</t>
+  </si>
+  <si>
+    <t>lr_k_202401_v2_1</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH – Kato-Katz Form V2.1</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_3_kato_katz_v2_1</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
@@ -1051,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="31.5">
@@ -1070,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="28"/>
@@ -1107,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="19"/>
@@ -1129,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="19"/>
@@ -1151,10 +1151,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="19"/>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1182,7 +1182,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1222,7 +1222,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1242,7 +1242,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
@@ -1275,21 +1275,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
       <c r="F12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="19" t="s">
@@ -1306,14 +1306,14 @@
         <v>15</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="32"/>
       <c r="F13" s="23"/>
       <c r="G13" s="33"/>
       <c r="H13" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="23" t="s">
@@ -1330,14 +1330,14 @@
         <v>16</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="32"/>
       <c r="F14" s="23"/>
       <c r="G14" s="33"/>
       <c r="H14" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="23" t="s">
@@ -1351,20 +1351,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="32"/>
       <c r="F15" s="23"/>
       <c r="G15" s="33"/>
       <c r="H15" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="32"/>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="16" spans="1:13" s="15" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1386,10 +1386,10 @@
       <c r="F16" s="23"/>
       <c r="G16" s="33"/>
       <c r="H16" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="32"/>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="17" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A17" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1408,10 +1408,10 @@
       <c r="F17" s="23"/>
       <c r="G17" s="33"/>
       <c r="H17" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="32"/>
@@ -1439,14 +1439,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="33"/>
       <c r="H19" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="23" t="s">
@@ -1463,14 +1463,14 @@
         <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="33"/>
       <c r="H20" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="23" t="s">
@@ -1484,20 +1484,20 @@
         <v>14</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="32"/>
       <c r="F21" s="23"/>
       <c r="G21" s="33"/>
       <c r="H21" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="32"/>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A22" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -1519,10 +1519,10 @@
       <c r="F22" s="23"/>
       <c r="G22" s="33"/>
       <c r="H22" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="32"/>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="23" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A23" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1541,10 +1541,10 @@
       <c r="F23" s="23"/>
       <c r="G23" s="33"/>
       <c r="H23" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="32"/>
@@ -1572,14 +1572,14 @@
         <v>19</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="32"/>
       <c r="F25" s="23"/>
       <c r="G25" s="33"/>
       <c r="H25" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="23" t="s">
@@ -1596,14 +1596,14 @@
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="32"/>
       <c r="F26" s="23"/>
       <c r="G26" s="33"/>
       <c r="H26" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="23" t="s">
@@ -1617,20 +1617,20 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="32"/>
       <c r="F27" s="23"/>
       <c r="G27" s="33"/>
       <c r="H27" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="32"/>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="28" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A28" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -1652,10 +1652,10 @@
       <c r="F28" s="23"/>
       <c r="G28" s="33"/>
       <c r="H28" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="32"/>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="29" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A29" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -1674,10 +1674,10 @@
       <c r="F29" s="23"/>
       <c r="G29" s="33"/>
       <c r="H29" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="32"/>
@@ -1705,14 +1705,14 @@
         <v>21</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="32"/>
       <c r="F31" s="23"/>
       <c r="G31" s="33"/>
       <c r="H31" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="23" t="s">
@@ -1729,14 +1729,14 @@
         <v>22</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="32"/>
       <c r="F32" s="23"/>
       <c r="G32" s="33"/>
       <c r="H32" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="23" t="s">
@@ -1750,20 +1750,20 @@
         <v>14</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="32"/>
       <c r="F33" s="23"/>
       <c r="G33" s="33"/>
       <c r="H33" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="32"/>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1">
       <c r="A34" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -1785,10 +1785,10 @@
       <c r="F34" s="23"/>
       <c r="G34" s="33"/>
       <c r="H34" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="32"/>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="35" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A35" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -1807,10 +1807,10 @@
       <c r="F35" s="23"/>
       <c r="G35" s="33"/>
       <c r="H35" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="32"/>
@@ -1845,7 +1845,7 @@
       <c r="F37" s="23"/>
       <c r="G37" s="33"/>
       <c r="H37" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="23" t="s">
@@ -1869,7 +1869,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="33"/>
       <c r="H38" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="23" t="s">
@@ -1883,17 +1883,17 @@
         <v>11</v>
       </c>
       <c r="B39" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="32"/>
       <c r="F39" s="23"/>
       <c r="G39" s="33"/>
       <c r="H39" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="23"/>
@@ -1905,17 +1905,17 @@
         <v>14</v>
       </c>
       <c r="B40" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="32"/>
       <c r="F40" s="23"/>
       <c r="G40" s="33"/>
       <c r="H40" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="23"/>
@@ -1927,17 +1927,17 @@
         <v>14</v>
       </c>
       <c r="B41" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>84</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="32"/>
       <c r="F41" s="23"/>
       <c r="G41" s="33"/>
       <c r="H41" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="23"/>
@@ -1966,7 +1966,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
@@ -2079,10 +2079,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2090,10 +2090,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3223,7 +3223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
